--- a/Data_set_2.xlsx
+++ b/Data_set_2.xlsx
@@ -1,32 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HLenihan 1/Documents/Bren/Courses/ESM 260/Winter 2020/Homework 2020/Second group 4-5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gclawson/Documents/UCSB/Winter 2020/ESM260/ESM260PS4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1099D802-362D-E443-873D-4925D39A64A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0457096C-0E6F-9240-B628-1D346D4D73EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="16600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Climate change" sheetId="17" r:id="rId1"/>
     <sheet name="Nuclear Power Plant" sheetId="2" r:id="rId2"/>
     <sheet name="Crab Fishery &amp; Barnacle Invader" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId13"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId14"/>
+    <sheet name="Nuclear Power Plant Tidy" sheetId="6" r:id="rId4"/>
+    <sheet name="upwell" sheetId="7" r:id="rId5"/>
+    <sheet name="crab" sheetId="8" r:id="rId6"/>
+    <sheet name="climate" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="80000"/>
   <extLst>
@@ -38,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="71">
   <si>
     <t>Species A</t>
   </si>
@@ -195,6 +188,63 @@
   <si>
     <t>Densities (# of individuals/100m^2)</t>
   </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>winter_ca</t>
+  </si>
+  <si>
+    <t>summer_ca</t>
+  </si>
+  <si>
+    <t>winter_or</t>
+  </si>
+  <si>
+    <t>summer_or</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>crab_ca</t>
+  </si>
+  <si>
+    <t>crab_or</t>
+  </si>
+  <si>
+    <t>barnacle_ca</t>
+  </si>
+  <si>
+    <t>barnacle_or</t>
+  </si>
+  <si>
+    <t>recruit</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>trophic</t>
+  </si>
 </sst>
 </file>
 
@@ -212,45 +262,54 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Geneva"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1173,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
@@ -1222,16 +1281,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>10</v>
@@ -1239,50 +1298,50 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>36</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>-19</v>
+        <v>-85</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>10</v>
@@ -1290,61 +1349,61 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>-91</v>
+        <v>-26</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-76</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>36</v>
+        <v>-29</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>38</v>
@@ -1358,7 +1417,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>-85</v>
@@ -1370,32 +1429,32 @@
         <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>8</v>
@@ -1409,13 +1468,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>-26</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>39</v>
@@ -1426,44 +1485,44 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>-91</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>-76</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -1472,21 +1531,21 @@
         <v>41</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>-29</v>
+        <v>69</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>15</v>
@@ -1494,19 +1553,19 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>-85</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1544,6 +1603,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E21">
+    <sortCondition ref="C2:C21"/>
+  </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1555,127 +1617,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
@@ -1706,6 +1653,7 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="2"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="16">
       <c r="A2" s="33"/>
@@ -1724,6 +1672,8 @@
         <v>2</v>
       </c>
       <c r="J2" s="17"/>
+      <c r="L2" s="33"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1">
       <c r="A3" s="29" t="s">
@@ -1757,10 +1707,10 @@
         <v>35</v>
       </c>
       <c r="K3"/>
-      <c r="L3"/>
+      <c r="L3" s="18"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3"/>
+      <c r="O3" s="7"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1797,6 +1747,8 @@
       <c r="J4" s="24">
         <v>14.685</v>
       </c>
+      <c r="L4" s="18"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="18">
@@ -1829,6 +1781,8 @@
       <c r="J5" s="9">
         <v>18.0807</v>
       </c>
+      <c r="L5" s="18"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="18">
@@ -1861,6 +1815,8 @@
       <c r="J6" s="9">
         <v>15.975299999999999</v>
       </c>
+      <c r="L6" s="18"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="18">
@@ -1893,6 +1849,8 @@
       <c r="J7" s="9">
         <v>18.3018</v>
       </c>
+      <c r="L7" s="18"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="18">
@@ -1925,6 +1883,8 @@
       <c r="J8" s="9">
         <v>15.113999999999999</v>
       </c>
+      <c r="L8" s="18"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="18">
@@ -1957,6 +1917,8 @@
       <c r="J9" s="9">
         <v>20.047499999999999</v>
       </c>
+      <c r="L9" s="18"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="18">
@@ -1989,6 +1951,8 @@
       <c r="J10" s="9">
         <v>19.087200000000003</v>
       </c>
+      <c r="L10" s="18"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="18">
@@ -2021,6 +1985,8 @@
       <c r="J11" s="9">
         <v>17.694600000000001</v>
       </c>
+      <c r="L11" s="34"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="18">
@@ -2053,6 +2019,8 @@
       <c r="J12" s="9">
         <v>20.433600000000002</v>
       </c>
+      <c r="L12" s="35"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="34">
@@ -2085,6 +2053,8 @@
       <c r="J13" s="12">
         <v>18.569100000000002</v>
       </c>
+      <c r="L13" s="35"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="35">
@@ -2117,6 +2087,8 @@
       <c r="J14" s="9">
         <v>20.192699999999999</v>
       </c>
+      <c r="L14" s="35"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="35">
@@ -2149,6 +2121,8 @@
       <c r="J15" s="9">
         <v>20.671200000000002</v>
       </c>
+      <c r="L15" s="35"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="35">
@@ -2181,8 +2155,10 @@
       <c r="J16" s="9">
         <v>22.001100000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" s="35"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="35">
         <v>2013</v>
       </c>
@@ -2213,8 +2189,10 @@
       <c r="J17" s="9">
         <v>20.453399999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" s="35"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="35">
         <v>2014</v>
       </c>
@@ -2245,8 +2223,10 @@
       <c r="J18" s="9">
         <v>21.334500000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" s="35"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="35">
         <v>2015</v>
       </c>
@@ -2277,8 +2257,10 @@
       <c r="J19" s="9">
         <v>25.479299999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19" s="35"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="35">
         <v>2016</v>
       </c>
@@ -2309,8 +2291,10 @@
       <c r="J20" s="9">
         <v>22.5456</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" s="35"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="35">
         <v>2017</v>
       </c>
@@ -2341,8 +2325,10 @@
       <c r="J21" s="9">
         <v>24.2913</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" s="36"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="35">
         <v>2018</v>
       </c>
@@ -2373,8 +2359,10 @@
       <c r="J22" s="9">
         <v>26.4924</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="L22" s="33"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="36">
         <v>2019</v>
       </c>
@@ -2405,6 +2393,640 @@
       <c r="J23" s="12">
         <v>23.736900000000002</v>
       </c>
+      <c r="L23" s="18"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="L24" s="18"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="L25" s="18"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="L26" s="18"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="L27" s="18"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="L28" s="18"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="L29" s="18"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="L30" s="18"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="L31" s="34"/>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="L32" s="35"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="12:15">
+      <c r="L33" s="35"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="12:15">
+      <c r="L34" s="35"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="12:15">
+      <c r="L35" s="35"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="12:15">
+      <c r="L36" s="35"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="12:15">
+      <c r="L37" s="35"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="12:15">
+      <c r="L38" s="35"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="12:15">
+      <c r="L39" s="35"/>
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" spans="12:15">
+      <c r="L40" s="35"/>
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="12:15">
+      <c r="L41" s="36"/>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="42" spans="12:15">
+      <c r="L42" s="33"/>
+      <c r="O42" s="24"/>
+    </row>
+    <row r="43" spans="12:15">
+      <c r="L43" s="18"/>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="12:15">
+      <c r="L44" s="18"/>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="12:15">
+      <c r="L45" s="18"/>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="12:15">
+      <c r="L46" s="18"/>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="12:15">
+      <c r="L47" s="18"/>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="12:15">
+      <c r="L48" s="18"/>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="12:15">
+      <c r="L49" s="18"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="12:15">
+      <c r="L50" s="18"/>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="12:15">
+      <c r="L51" s="34"/>
+      <c r="O51" s="12"/>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="35"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="35"/>
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="12:15">
+      <c r="L54" s="35"/>
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="12:15">
+      <c r="L55" s="35"/>
+      <c r="O55" s="9"/>
+    </row>
+    <row r="56" spans="12:15">
+      <c r="L56" s="35"/>
+      <c r="O56" s="9"/>
+    </row>
+    <row r="57" spans="12:15">
+      <c r="L57" s="35"/>
+      <c r="O57" s="9"/>
+    </row>
+    <row r="58" spans="12:15">
+      <c r="L58" s="35"/>
+      <c r="O58" s="9"/>
+    </row>
+    <row r="59" spans="12:15">
+      <c r="L59" s="35"/>
+      <c r="O59" s="9"/>
+    </row>
+    <row r="60" spans="12:15">
+      <c r="L60" s="35"/>
+      <c r="O60" s="9"/>
+    </row>
+    <row r="61" spans="12:15">
+      <c r="L61" s="36"/>
+      <c r="O61" s="12"/>
+    </row>
+    <row r="62" spans="12:15">
+      <c r="L62" s="33"/>
+      <c r="O62" s="53"/>
+    </row>
+    <row r="63" spans="12:15">
+      <c r="L63" s="18"/>
+      <c r="O63" s="56"/>
+    </row>
+    <row r="64" spans="12:15">
+      <c r="L64" s="18"/>
+      <c r="O64" s="56"/>
+    </row>
+    <row r="65" spans="12:15">
+      <c r="L65" s="18"/>
+      <c r="O65" s="56"/>
+    </row>
+    <row r="66" spans="12:15">
+      <c r="L66" s="18"/>
+      <c r="O66" s="56"/>
+    </row>
+    <row r="67" spans="12:15">
+      <c r="L67" s="18"/>
+      <c r="O67" s="56"/>
+    </row>
+    <row r="68" spans="12:15">
+      <c r="L68" s="18"/>
+      <c r="O68" s="56"/>
+    </row>
+    <row r="69" spans="12:15">
+      <c r="L69" s="18"/>
+      <c r="O69" s="56"/>
+    </row>
+    <row r="70" spans="12:15">
+      <c r="L70" s="18"/>
+      <c r="O70" s="56"/>
+    </row>
+    <row r="71" spans="12:15">
+      <c r="L71" s="34"/>
+      <c r="O71" s="59"/>
+    </row>
+    <row r="72" spans="12:15">
+      <c r="L72" s="35"/>
+      <c r="O72" s="56"/>
+    </row>
+    <row r="73" spans="12:15">
+      <c r="L73" s="35"/>
+      <c r="O73" s="56"/>
+    </row>
+    <row r="74" spans="12:15">
+      <c r="L74" s="35"/>
+      <c r="O74" s="56"/>
+    </row>
+    <row r="75" spans="12:15">
+      <c r="L75" s="35"/>
+      <c r="O75" s="56"/>
+    </row>
+    <row r="76" spans="12:15">
+      <c r="L76" s="35"/>
+      <c r="O76" s="56"/>
+    </row>
+    <row r="77" spans="12:15">
+      <c r="L77" s="35"/>
+      <c r="O77" s="56"/>
+    </row>
+    <row r="78" spans="12:15">
+      <c r="L78" s="35"/>
+      <c r="O78" s="56"/>
+    </row>
+    <row r="79" spans="12:15">
+      <c r="L79" s="35"/>
+      <c r="O79" s="56"/>
+    </row>
+    <row r="80" spans="12:15">
+      <c r="L80" s="35"/>
+      <c r="O80" s="56"/>
+    </row>
+    <row r="81" spans="12:15">
+      <c r="L81" s="36"/>
+      <c r="O81" s="59"/>
+    </row>
+    <row r="82" spans="12:15">
+      <c r="L82" s="33"/>
+      <c r="O82" s="54"/>
+    </row>
+    <row r="83" spans="12:15">
+      <c r="L83" s="18"/>
+      <c r="O83" s="57"/>
+    </row>
+    <row r="84" spans="12:15">
+      <c r="L84" s="18"/>
+      <c r="O84" s="57"/>
+    </row>
+    <row r="85" spans="12:15">
+      <c r="L85" s="18"/>
+      <c r="O85" s="57"/>
+    </row>
+    <row r="86" spans="12:15">
+      <c r="L86" s="18"/>
+      <c r="O86" s="57"/>
+    </row>
+    <row r="87" spans="12:15">
+      <c r="L87" s="18"/>
+      <c r="O87" s="57"/>
+    </row>
+    <row r="88" spans="12:15">
+      <c r="L88" s="18"/>
+      <c r="O88" s="57"/>
+    </row>
+    <row r="89" spans="12:15">
+      <c r="L89" s="18"/>
+      <c r="O89" s="57"/>
+    </row>
+    <row r="90" spans="12:15">
+      <c r="L90" s="18"/>
+      <c r="O90" s="57"/>
+    </row>
+    <row r="91" spans="12:15">
+      <c r="L91" s="34"/>
+      <c r="O91" s="60"/>
+    </row>
+    <row r="92" spans="12:15">
+      <c r="L92" s="35"/>
+      <c r="O92" s="57"/>
+    </row>
+    <row r="93" spans="12:15">
+      <c r="L93" s="35"/>
+      <c r="O93" s="57"/>
+    </row>
+    <row r="94" spans="12:15">
+      <c r="L94" s="35"/>
+      <c r="O94" s="57"/>
+    </row>
+    <row r="95" spans="12:15">
+      <c r="L95" s="35"/>
+      <c r="O95" s="57"/>
+    </row>
+    <row r="96" spans="12:15">
+      <c r="L96" s="35"/>
+      <c r="O96" s="57"/>
+    </row>
+    <row r="97" spans="12:15">
+      <c r="L97" s="35"/>
+      <c r="O97" s="57"/>
+    </row>
+    <row r="98" spans="12:15">
+      <c r="L98" s="35"/>
+      <c r="O98" s="57"/>
+    </row>
+    <row r="99" spans="12:15">
+      <c r="L99" s="35"/>
+      <c r="O99" s="57"/>
+    </row>
+    <row r="100" spans="12:15">
+      <c r="L100" s="35"/>
+      <c r="O100" s="57"/>
+    </row>
+    <row r="101" spans="12:15">
+      <c r="L101" s="36"/>
+      <c r="O101" s="60"/>
+    </row>
+    <row r="102" spans="12:15">
+      <c r="L102" s="33"/>
+      <c r="O102" s="55"/>
+    </row>
+    <row r="103" spans="12:15">
+      <c r="L103" s="18"/>
+      <c r="O103" s="58"/>
+    </row>
+    <row r="104" spans="12:15">
+      <c r="L104" s="18"/>
+      <c r="O104" s="58"/>
+    </row>
+    <row r="105" spans="12:15">
+      <c r="L105" s="18"/>
+      <c r="O105" s="58"/>
+    </row>
+    <row r="106" spans="12:15">
+      <c r="L106" s="18"/>
+      <c r="O106" s="58"/>
+    </row>
+    <row r="107" spans="12:15">
+      <c r="L107" s="18"/>
+      <c r="O107" s="58"/>
+    </row>
+    <row r="108" spans="12:15">
+      <c r="L108" s="18"/>
+      <c r="O108" s="58"/>
+    </row>
+    <row r="109" spans="12:15">
+      <c r="L109" s="18"/>
+      <c r="O109" s="58"/>
+    </row>
+    <row r="110" spans="12:15">
+      <c r="L110" s="18"/>
+      <c r="O110" s="58"/>
+    </row>
+    <row r="111" spans="12:15">
+      <c r="L111" s="34"/>
+      <c r="O111" s="61"/>
+    </row>
+    <row r="112" spans="12:15">
+      <c r="L112" s="35"/>
+      <c r="O112" s="58"/>
+    </row>
+    <row r="113" spans="12:15">
+      <c r="L113" s="35"/>
+      <c r="O113" s="58"/>
+    </row>
+    <row r="114" spans="12:15">
+      <c r="L114" s="35"/>
+      <c r="O114" s="58"/>
+    </row>
+    <row r="115" spans="12:15">
+      <c r="L115" s="35"/>
+      <c r="O115" s="58"/>
+    </row>
+    <row r="116" spans="12:15">
+      <c r="L116" s="35"/>
+      <c r="O116" s="58"/>
+    </row>
+    <row r="117" spans="12:15">
+      <c r="L117" s="35"/>
+      <c r="O117" s="58"/>
+    </row>
+    <row r="118" spans="12:15">
+      <c r="L118" s="35"/>
+      <c r="O118" s="58"/>
+    </row>
+    <row r="119" spans="12:15">
+      <c r="L119" s="35"/>
+      <c r="O119" s="58"/>
+    </row>
+    <row r="120" spans="12:15">
+      <c r="L120" s="35"/>
+      <c r="O120" s="58"/>
+    </row>
+    <row r="121" spans="12:15">
+      <c r="L121" s="36"/>
+      <c r="O121" s="61"/>
+    </row>
+    <row r="122" spans="12:15">
+      <c r="L122" s="33"/>
+      <c r="O122" s="14"/>
+    </row>
+    <row r="123" spans="12:15">
+      <c r="L123" s="18"/>
+      <c r="O123" s="7"/>
+    </row>
+    <row r="124" spans="12:15">
+      <c r="L124" s="18"/>
+      <c r="O124" s="7"/>
+    </row>
+    <row r="125" spans="12:15">
+      <c r="L125" s="18"/>
+      <c r="O125" s="7"/>
+    </row>
+    <row r="126" spans="12:15">
+      <c r="L126" s="18"/>
+      <c r="O126" s="7"/>
+    </row>
+    <row r="127" spans="12:15">
+      <c r="L127" s="18"/>
+      <c r="O127" s="7"/>
+    </row>
+    <row r="128" spans="12:15">
+      <c r="L128" s="18"/>
+      <c r="O128" s="7"/>
+    </row>
+    <row r="129" spans="12:15">
+      <c r="L129" s="18"/>
+      <c r="O129" s="7"/>
+    </row>
+    <row r="130" spans="12:15">
+      <c r="L130" s="18"/>
+      <c r="O130" s="7"/>
+    </row>
+    <row r="131" spans="12:15">
+      <c r="L131" s="34"/>
+      <c r="O131" s="10"/>
+    </row>
+    <row r="132" spans="12:15">
+      <c r="L132" s="35"/>
+      <c r="O132" s="7"/>
+    </row>
+    <row r="133" spans="12:15">
+      <c r="L133" s="35"/>
+      <c r="O133" s="7"/>
+    </row>
+    <row r="134" spans="12:15">
+      <c r="L134" s="35"/>
+      <c r="O134" s="7"/>
+    </row>
+    <row r="135" spans="12:15">
+      <c r="L135" s="35"/>
+      <c r="O135" s="7"/>
+    </row>
+    <row r="136" spans="12:15">
+      <c r="L136" s="35"/>
+      <c r="O136" s="7"/>
+    </row>
+    <row r="137" spans="12:15">
+      <c r="L137" s="35"/>
+      <c r="O137" s="7"/>
+    </row>
+    <row r="138" spans="12:15">
+      <c r="L138" s="35"/>
+      <c r="O138" s="7"/>
+    </row>
+    <row r="139" spans="12:15">
+      <c r="L139" s="35"/>
+      <c r="O139" s="7"/>
+    </row>
+    <row r="140" spans="12:15">
+      <c r="L140" s="35"/>
+      <c r="O140" s="7"/>
+    </row>
+    <row r="141" spans="12:15">
+      <c r="L141" s="36"/>
+      <c r="O141" s="10"/>
+    </row>
+    <row r="142" spans="12:15">
+      <c r="L142" s="33"/>
+      <c r="O142" s="15"/>
+    </row>
+    <row r="143" spans="12:15">
+      <c r="L143" s="18"/>
+      <c r="O143" s="8"/>
+    </row>
+    <row r="144" spans="12:15">
+      <c r="L144" s="18"/>
+      <c r="O144" s="8"/>
+    </row>
+    <row r="145" spans="12:15">
+      <c r="L145" s="18"/>
+      <c r="O145" s="8"/>
+    </row>
+    <row r="146" spans="12:15">
+      <c r="L146" s="18"/>
+      <c r="O146" s="8"/>
+    </row>
+    <row r="147" spans="12:15">
+      <c r="L147" s="18"/>
+      <c r="O147" s="8"/>
+    </row>
+    <row r="148" spans="12:15">
+      <c r="L148" s="18"/>
+      <c r="O148" s="8"/>
+    </row>
+    <row r="149" spans="12:15">
+      <c r="L149" s="18"/>
+      <c r="O149" s="8"/>
+    </row>
+    <row r="150" spans="12:15">
+      <c r="L150" s="18"/>
+      <c r="O150" s="8"/>
+    </row>
+    <row r="151" spans="12:15">
+      <c r="L151" s="34"/>
+      <c r="O151" s="11"/>
+    </row>
+    <row r="152" spans="12:15">
+      <c r="L152" s="35"/>
+      <c r="O152" s="8"/>
+    </row>
+    <row r="153" spans="12:15">
+      <c r="L153" s="35"/>
+      <c r="O153" s="8"/>
+    </row>
+    <row r="154" spans="12:15">
+      <c r="L154" s="35"/>
+      <c r="O154" s="8"/>
+    </row>
+    <row r="155" spans="12:15">
+      <c r="L155" s="35"/>
+      <c r="O155" s="8"/>
+    </row>
+    <row r="156" spans="12:15">
+      <c r="L156" s="35"/>
+      <c r="O156" s="8"/>
+    </row>
+    <row r="157" spans="12:15">
+      <c r="L157" s="35"/>
+      <c r="O157" s="8"/>
+    </row>
+    <row r="158" spans="12:15">
+      <c r="L158" s="35"/>
+      <c r="O158" s="8"/>
+    </row>
+    <row r="159" spans="12:15">
+      <c r="L159" s="35"/>
+      <c r="O159" s="8"/>
+    </row>
+    <row r="160" spans="12:15">
+      <c r="L160" s="35"/>
+      <c r="O160" s="8"/>
+    </row>
+    <row r="161" spans="12:15">
+      <c r="L161" s="36"/>
+      <c r="O161" s="11"/>
+    </row>
+    <row r="162" spans="12:15">
+      <c r="L162" s="33"/>
+      <c r="O162" s="24"/>
+    </row>
+    <row r="163" spans="12:15">
+      <c r="L163" s="18"/>
+      <c r="O163" s="9"/>
+    </row>
+    <row r="164" spans="12:15">
+      <c r="L164" s="18"/>
+      <c r="O164" s="9"/>
+    </row>
+    <row r="165" spans="12:15">
+      <c r="L165" s="18"/>
+      <c r="O165" s="9"/>
+    </row>
+    <row r="166" spans="12:15">
+      <c r="L166" s="18"/>
+      <c r="O166" s="9"/>
+    </row>
+    <row r="167" spans="12:15">
+      <c r="L167" s="18"/>
+      <c r="O167" s="9"/>
+    </row>
+    <row r="168" spans="12:15">
+      <c r="L168" s="18"/>
+      <c r="O168" s="9"/>
+    </row>
+    <row r="169" spans="12:15">
+      <c r="L169" s="18"/>
+      <c r="O169" s="9"/>
+    </row>
+    <row r="170" spans="12:15">
+      <c r="L170" s="18"/>
+      <c r="O170" s="9"/>
+    </row>
+    <row r="171" spans="12:15">
+      <c r="L171" s="34"/>
+      <c r="O171" s="12"/>
+    </row>
+    <row r="172" spans="12:15">
+      <c r="L172" s="35"/>
+      <c r="O172" s="9"/>
+    </row>
+    <row r="173" spans="12:15">
+      <c r="L173" s="35"/>
+      <c r="O173" s="9"/>
+    </row>
+    <row r="174" spans="12:15">
+      <c r="L174" s="35"/>
+      <c r="O174" s="9"/>
+    </row>
+    <row r="175" spans="12:15">
+      <c r="L175" s="35"/>
+      <c r="O175" s="9"/>
+    </row>
+    <row r="176" spans="12:15">
+      <c r="L176" s="35"/>
+      <c r="O176" s="9"/>
+    </row>
+    <row r="177" spans="12:15">
+      <c r="L177" s="35"/>
+      <c r="O177" s="9"/>
+    </row>
+    <row r="178" spans="12:15">
+      <c r="L178" s="35"/>
+      <c r="O178" s="9"/>
+    </row>
+    <row r="179" spans="12:15">
+      <c r="L179" s="35"/>
+      <c r="O179" s="9"/>
+    </row>
+    <row r="180" spans="12:15">
+      <c r="L180" s="35"/>
+      <c r="O180" s="9"/>
+    </row>
+    <row r="181" spans="12:15">
+      <c r="L181" s="36"/>
+      <c r="O181" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2428,7 +3050,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
@@ -3461,12 +4083,2549 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="33">
+        <v>2000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="14">
+        <v>19.3611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7">
+        <v>14.523300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17.552700000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15.1008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13.962300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="18">
+        <v>2005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14.3451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7">
+        <v>16.2591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="18">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7">
+        <v>11.0913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="18">
+        <v>2008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7">
+        <v>14.3352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="10">
+        <v>14.312099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="35">
+        <v>2010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>15.424200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="35">
+        <v>2011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15.681600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="35">
+        <v>2012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>16.394400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="35">
+        <v>2013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7">
+        <v>15.071100000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="35">
+        <v>2014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13.632300000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="35">
+        <v>2015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7">
+        <v>18.216000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="35">
+        <v>2016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19.875900000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7">
+        <v>14.160299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7">
+        <v>16.001700000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="10">
+        <v>12.1143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="33">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="15">
+        <v>17.773800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8">
+        <v>8.9298000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="8">
+        <v>14.8269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="18">
+        <v>2003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="8">
+        <v>16.453800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8">
+        <v>13.190100000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="18">
+        <v>2005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="8">
+        <v>19.892400000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="18">
+        <v>2006</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="8">
+        <v>18.087300000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="18">
+        <v>2007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="8">
+        <v>18.288600000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="18">
+        <v>2008</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="8">
+        <v>19.0245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="11">
+        <v>13.619100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="35">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="8">
+        <v>20.040900000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="35">
+        <v>2011</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="8">
+        <v>19.974900000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="35">
+        <v>2012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="8">
+        <v>20.773500000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="35">
+        <v>2013</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="8">
+        <v>9.5963999999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="35">
+        <v>2014</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="8">
+        <v>13.8171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="35">
+        <v>2015</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="8">
+        <v>12.0219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="35">
+        <v>2016</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="8">
+        <v>13.619100000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="8">
+        <v>12.995400000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="8">
+        <v>9.7844999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="11">
+        <v>19.371000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="33">
+        <v>2000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="24">
+        <v>19.430400000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="9">
+        <v>14.721300000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="9">
+        <v>18.7011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="18">
+        <v>2003</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="9">
+        <v>15.2889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="9">
+        <v>15.724500000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="18">
+        <v>2005</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="9">
+        <v>15.5463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="18">
+        <v>2006</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="9">
+        <v>16.308600000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="18">
+        <v>2007</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="9">
+        <v>13.332000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="18">
+        <v>2008</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="9">
+        <v>16.354800000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="12">
+        <v>15.107400000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="35">
+        <v>2010</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="9">
+        <v>17.391000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="35">
+        <v>2011</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="9">
+        <v>16.684800000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="35">
+        <v>2012</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="9">
+        <v>17.130299999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="35">
+        <v>2013</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="9">
+        <v>15.199800000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="35">
+        <v>2014</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="9">
+        <v>14.8863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="35">
+        <v>2015</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="9">
+        <v>19.714200000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="35">
+        <v>2016</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="9">
+        <v>20.5227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="9">
+        <v>16.0182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="9">
+        <v>17.268899999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="12">
+        <v>13.2363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="33">
+        <v>2000</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="53">
+        <v>14.902226514953226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="56">
+        <v>14.045965029904565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="56">
+        <v>16.633885692740193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="18">
+        <v>2003</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="56">
+        <v>15.602715401442177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="56">
+        <v>13.479284563621963</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="18">
+        <v>2005</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="56">
+        <v>12.265026331308764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="18">
+        <v>2006</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="56">
+        <v>16.034926783373059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="18">
+        <v>2007</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="56">
+        <v>14.227266506809064</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="18">
+        <v>2008</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="56">
+        <v>15.195690371814987</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="59">
+        <v>17.086468594993288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="35">
+        <v>2010</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="56">
+        <v>7.4193984290876127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="35">
+        <v>2011</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="56">
+        <v>8.1232990694482599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="35">
+        <v>2012</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="56">
+        <v>10.131488051355694</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="35">
+        <v>2013</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="56">
+        <v>7.5554793642770113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="35">
+        <v>2014</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="56">
+        <v>9.5741635645277636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="35">
+        <v>2015</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="56">
+        <v>8.0716942271665673</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="35">
+        <v>2016</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="56">
+        <v>7.3203320028657757</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="56">
+        <v>8.1919271447845681</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="56">
+        <v>7.1278159292495689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="59">
+        <v>9.4915681600157775</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="33">
+        <v>2000</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="54">
+        <v>24.680999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="57">
+        <v>16.440899999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="57">
+        <v>27.891900000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="18">
+        <v>2003</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="57">
+        <v>14.563200000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="57">
+        <v>19.440600000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="18">
+        <v>2005</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="57">
+        <v>19.219500000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="18">
+        <v>2006</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="57">
+        <v>15.423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="18">
+        <v>2007</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="57">
+        <v>18.028199999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="18">
+        <v>2008</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="57">
+        <v>16.724700000000006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="60">
+        <v>19.764000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="35">
+        <v>2010</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="57">
+        <v>13.424700000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="35">
+        <v>2011</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="57">
+        <v>10.098300000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="35">
+        <v>2012</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="57">
+        <v>8.6780000000000008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="35">
+        <v>2013</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="57">
+        <v>20.070900000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="35">
+        <v>2014</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="57">
+        <v>8.072100000000006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="35">
+        <v>2015</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="57">
+        <v>17.180100000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="35">
+        <v>2016</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="57">
+        <v>9.1347000000000023</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="57">
+        <v>10.227000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="57">
+        <v>6.3791999999999973</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="60">
+        <v>7.6893000000000029</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="33">
+        <v>2000</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" s="55">
+        <v>10.731171432443734</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="58">
+        <v>10.501775961798643</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="58">
+        <v>12.153047824471049</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="18">
+        <v>2003</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" s="58">
+        <v>11.29401113016055</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="58">
+        <v>9.6946363067650871</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="18">
+        <v>2005</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="58">
+        <v>8.2344957399251779</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="18">
+        <v>2006</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="58">
+        <v>12.193988805167942</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="18">
+        <v>2007</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="58">
+        <v>10.375382554366364</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="18">
+        <v>2008</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="58">
+        <v>11.843393432056773</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="61">
+        <v>13.178223229572826</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="35">
+        <v>2010</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" s="58">
+        <v>3.541664634720795</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="35">
+        <v>2011</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="58">
+        <v>4.8997045929294574</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="35">
+        <v>2012</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="58">
+        <v>6.2101341602008269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="35">
+        <v>2013</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="58">
+        <v>3.9389143323206843</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="35">
+        <v>2014</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" s="58">
+        <v>5.2889847214429908</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="35">
+        <v>2015</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="58">
+        <v>4.3302762916127513</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="35">
+        <v>2016</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="58">
+        <v>3.8547869288326368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="58">
+        <v>4.0737550653265009</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="58">
+        <v>3.5598235715652446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" s="61">
+        <v>5.2386233422698751</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="33">
+        <v>2000</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="14">
+        <v>12.850199999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="7">
+        <v>17.285400000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" s="7">
+        <v>15.4308</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="18">
+        <v>2003</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="7">
+        <v>16.3977</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" s="7">
+        <v>13.652099999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="18">
+        <v>2005</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" s="7">
+        <v>19.8264</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="18">
+        <v>2006</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="7">
+        <v>18.291900000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="18">
+        <v>2007</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="7">
+        <v>16.4406</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="18">
+        <v>2008</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="7">
+        <v>20.337900000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="10">
+        <v>17.6187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="35">
+        <v>2010</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="7">
+        <v>17.833200000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="35">
+        <v>2011</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" s="7">
+        <v>16.592400000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="35">
+        <v>2012</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" s="7">
+        <v>16.797000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="35">
+        <v>2013</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" s="7">
+        <v>17.014800000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="35">
+        <v>2014</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>33</v>
+      </c>
+      <c r="D136" s="7">
+        <v>16.872900000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="35">
+        <v>2015</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="7">
+        <v>22.717200000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="35">
+        <v>2016</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>33</v>
+      </c>
+      <c r="D138" s="7">
+        <v>17.678100000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" s="7">
+        <v>19.374300000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="7">
+        <v>22.558800000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" s="10">
+        <v>19.338000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="33">
+        <v>2000</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" s="15">
+        <v>19.050899999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" s="8">
+        <v>12.546600000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" s="8">
+        <v>17.849700000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="18">
+        <v>2003</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" s="8">
+        <v>11.2332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" s="8">
+        <v>14.949</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="18">
+        <v>2005</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" s="8">
+        <v>22.908600000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="18">
+        <v>2006</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" s="8">
+        <v>13.480500000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="18">
+        <v>2007</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" s="8">
+        <v>13.592700000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="18">
+        <v>2008</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" s="8">
+        <v>14.180099999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" s="11">
+        <v>18.816600000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="35">
+        <v>2010</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" s="8">
+        <v>19.757100000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="35">
+        <v>2011</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" s="8">
+        <v>13.784100000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="35">
+        <v>2012</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" s="8">
+        <v>15.935700000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="35">
+        <v>2013</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" s="8">
+        <v>24.776399999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="35">
+        <v>2014</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" s="8">
+        <v>16.886100000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="35">
+        <v>2015</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" s="8">
+        <v>15.882900000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="35">
+        <v>2016</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" s="8">
+        <v>20.6844</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" s="8">
+        <v>18.796800000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" s="8">
+        <v>18.6252</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161" s="11">
+        <v>24.792899999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="33">
+        <v>2000</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>35</v>
+      </c>
+      <c r="D162" s="24">
+        <v>14.685</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>35</v>
+      </c>
+      <c r="D163" s="9">
+        <v>18.0807</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>35</v>
+      </c>
+      <c r="D164" s="9">
+        <v>15.975299999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="18">
+        <v>2003</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>35</v>
+      </c>
+      <c r="D165" s="9">
+        <v>18.3018</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>35</v>
+      </c>
+      <c r="D166" s="9">
+        <v>15.113999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="18">
+        <v>2005</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>35</v>
+      </c>
+      <c r="D167" s="9">
+        <v>20.047499999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="18">
+        <v>2006</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>35</v>
+      </c>
+      <c r="D168" s="9">
+        <v>19.087200000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="18">
+        <v>2007</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>35</v>
+      </c>
+      <c r="D169" s="9">
+        <v>17.694600000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="18">
+        <v>2008</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>35</v>
+      </c>
+      <c r="D170" s="9">
+        <v>20.433600000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="34">
+        <v>2009</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>35</v>
+      </c>
+      <c r="D171" s="12">
+        <v>18.569100000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="35">
+        <v>2010</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>35</v>
+      </c>
+      <c r="D172" s="9">
+        <v>20.192699999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="35">
+        <v>2011</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>35</v>
+      </c>
+      <c r="D173" s="9">
+        <v>20.671200000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="35">
+        <v>2012</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>35</v>
+      </c>
+      <c r="D174" s="9">
+        <v>22.001100000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="35">
+        <v>2013</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>35</v>
+      </c>
+      <c r="D175" s="9">
+        <v>20.453399999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="35">
+        <v>2014</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>35</v>
+      </c>
+      <c r="D176" s="9">
+        <v>21.334500000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="35">
+        <v>2015</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>35</v>
+      </c>
+      <c r="D177" s="9">
+        <v>25.479299999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="35">
+        <v>2016</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>35</v>
+      </c>
+      <c r="D178" s="9">
+        <v>22.5456</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="35">
+        <v>2017</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>35</v>
+      </c>
+      <c r="D179" s="9">
+        <v>24.2913</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="35">
+        <v>2018</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>35</v>
+      </c>
+      <c r="D180" s="9">
+        <v>26.4924</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>35</v>
+      </c>
+      <c r="D181" s="12">
+        <v>23.736900000000002</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3484,12 +6643,360 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>235</v>
+      </c>
+      <c r="E2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>192</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>122</v>
+      </c>
+      <c r="C4">
+        <v>108</v>
+      </c>
+      <c r="D4">
+        <v>-26</v>
+      </c>
+      <c r="E4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>-50</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>110</v>
+      </c>
+      <c r="C7">
+        <v>-49</v>
+      </c>
+      <c r="D7">
+        <v>89</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>-121</v>
+      </c>
+      <c r="C8">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>-30</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>-34</v>
+      </c>
+      <c r="C10">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <v>-29</v>
+      </c>
+      <c r="E10">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>-130</v>
+      </c>
+      <c r="C11">
+        <v>-78</v>
+      </c>
+      <c r="D11">
+        <v>78</v>
+      </c>
+      <c r="E11">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>-38</v>
+      </c>
+      <c r="D12">
+        <v>-61</v>
+      </c>
+      <c r="E12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>-190</v>
+      </c>
+      <c r="C13">
+        <v>-134</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>-186</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>-12</v>
+      </c>
+      <c r="E14">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>-49</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>-3</v>
+      </c>
+      <c r="E15">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>-198</v>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17">
+        <v>-233</v>
+      </c>
+      <c r="C17">
+        <v>-191</v>
+      </c>
+      <c r="D17">
+        <v>-74</v>
+      </c>
+      <c r="E17">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>-293</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>-61</v>
+      </c>
+      <c r="E18">
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <v>-67</v>
+      </c>
+      <c r="C19">
+        <v>-193</v>
+      </c>
+      <c r="D19">
+        <v>-38</v>
+      </c>
+      <c r="E19">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20">
+        <v>-53</v>
+      </c>
+      <c r="C20">
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <v>-82</v>
+      </c>
+      <c r="E20">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21">
+        <v>-188</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3507,12 +7014,815 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>2005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>2007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>2009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>2010</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2011</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>2012</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2013</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>2014</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2015</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2016</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2017</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2018</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>2019</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>19</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2000</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>41</v>
+      </c>
+      <c r="F41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>38</v>
+      </c>
+      <c r="F43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2002</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>37</v>
+      </c>
+      <c r="F45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>2003</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>42</v>
+      </c>
+      <c r="F47">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2004</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>29</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>2005</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>32</v>
+      </c>
+      <c r="E51">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>2006</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>37</v>
+      </c>
+      <c r="F53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>2007</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>36</v>
+      </c>
+      <c r="E55">
+        <v>35</v>
+      </c>
+      <c r="F55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>2008</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>36</v>
+      </c>
+      <c r="E57">
+        <v>35</v>
+      </c>
+      <c r="F57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>2009</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>39</v>
+      </c>
+      <c r="E59">
+        <v>31</v>
+      </c>
+      <c r="F59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>2010</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>39</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>2011</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>22</v>
+      </c>
+      <c r="E63">
+        <v>31</v>
+      </c>
+      <c r="F63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>2012</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>17</v>
+      </c>
+      <c r="D65">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>33</v>
+      </c>
+      <c r="F65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>2013</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>23</v>
+      </c>
+      <c r="E67">
+        <v>34</v>
+      </c>
+      <c r="F67">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>2014</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>22</v>
+      </c>
+      <c r="E69">
+        <v>32</v>
+      </c>
+      <c r="F69">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>2015</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71">
+        <v>23</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>31</v>
+      </c>
+      <c r="F71">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>2016</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <v>40</v>
+      </c>
+      <c r="E73">
+        <v>32</v>
+      </c>
+      <c r="F73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>2017</v>
+      </c>
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>36</v>
+      </c>
+      <c r="E75">
+        <v>34</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>2018</v>
+      </c>
+      <c r="B77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77">
+        <v>23</v>
+      </c>
+      <c r="D77">
+        <v>27</v>
+      </c>
+      <c r="E77">
+        <v>27</v>
+      </c>
+      <c r="F77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>2019</v>
+      </c>
+      <c r="B79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>43</v>
+      </c>
+      <c r="E79">
+        <v>28</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3530,58 +7840,372 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>-19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>-91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>-76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>-85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>-29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>-85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>-59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
